--- a/autit_table.xlsx
+++ b/autit_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CI_Cons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECFC9651-D32F-4D68-9975-11162A673C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1F9401-4FF7-4A89-AC41-731298317B5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="372" yWindow="1368" windowWidth="22668" windowHeight="10992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
   <si>
     <t>Волк</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Правый</t>
   </si>
   <si>
-    <t>Я бы предпочел</t>
-  </si>
-  <si>
     <t>Выбирать клиентов из списка</t>
   </si>
   <si>
@@ -141,6 +138,168 @@
   </si>
   <si>
     <t>Поддержать теплые отношения с клиентом</t>
+  </si>
+  <si>
+    <t>В своей работе я делаю упор на</t>
+  </si>
+  <si>
+    <t>Выполнение плана продаж</t>
+  </si>
+  <si>
+    <t>Представить проблему клиенту и обсудить с ним</t>
+  </si>
+  <si>
+    <t>Решить проблему, чтобы клиент с ней не столкнулся</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В ходе продаж я </t>
+  </si>
+  <si>
+    <t>Могу опустить неудобную информацию, чтобы заключить сделку</t>
+  </si>
+  <si>
+    <t>Обсуждаю с клиентом все нюансы</t>
+  </si>
+  <si>
+    <t>Если виденье клиента отличается от нашего я скорее</t>
+  </si>
+  <si>
+    <t>Долгосрочных целях</t>
+  </si>
+  <si>
+    <t>Эмоциональный и межличностный подход</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Надавлю на клиента и закрою сделку </t>
+  </si>
+  <si>
+    <t>Сделаю упор на сохранении хороших отношений</t>
+  </si>
+  <si>
+    <t>В случае сомнений у клиента я скорее</t>
+  </si>
+  <si>
+    <t>Меня больше вдохновляет</t>
+  </si>
+  <si>
+    <t>Закрытие большого числа сделок</t>
+  </si>
+  <si>
+    <t>Закрытие сложных сделок</t>
+  </si>
+  <si>
+    <t>Факты и данные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В работе я опираюсь на </t>
+  </si>
+  <si>
+    <t>Аналитику и логику</t>
+  </si>
+  <si>
+    <t>В перввую очередь я стараюсь узнать</t>
+  </si>
+  <si>
+    <t>О личности клиента</t>
+  </si>
+  <si>
+    <t>Решение проблемы клиента</t>
+  </si>
+  <si>
+    <t>О технических аспектах продукта</t>
+  </si>
+  <si>
+    <t>Я привык опираться на</t>
+  </si>
+  <si>
+    <t>Интуицию</t>
+  </si>
+  <si>
+    <t>Я предпочитаю работать</t>
+  </si>
+  <si>
+    <t>Самостоятельно</t>
+  </si>
+  <si>
+    <t>В команде</t>
+  </si>
+  <si>
+    <t>Продавая я делаю акцента на</t>
+  </si>
+  <si>
+    <t>Возможности развить клиента</t>
+  </si>
+  <si>
+    <t>Если мне нужно надавить на клиента я в первую очередь использую</t>
+  </si>
+  <si>
+    <t>Упущенную выгоду, перспективы</t>
+  </si>
+  <si>
+    <t>Существующие риски, страхи</t>
+  </si>
+  <si>
+    <t>Чтобы обучить хорошего продавца я</t>
+  </si>
+  <si>
+    <t>Дам ему "набивать шишки", чтобы он научился на ошибках</t>
+  </si>
+  <si>
+    <t>Обучу его, чтобы он совершил меньше ошибок</t>
+  </si>
+  <si>
+    <t>Чтобы закрыть сделку я стараюсь</t>
+  </si>
+  <si>
+    <t>Вникнуть в бизнес клиента</t>
+  </si>
+  <si>
+    <t>Давить на срочность</t>
+  </si>
+  <si>
+    <t>Я хотел бы</t>
+  </si>
+  <si>
+    <t>В первую очередь я стремлюсь</t>
+  </si>
+  <si>
+    <t>Я сначала</t>
+  </si>
+  <si>
+    <t>Решу экстренные вопросы действующих клиентов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Совершу запланированные звонки новым клиентам </t>
+  </si>
+  <si>
+    <t>При продажах я обычно</t>
+  </si>
+  <si>
+    <t>Следую стандартам</t>
+  </si>
+  <si>
+    <t>Использую собственные методы</t>
+  </si>
+  <si>
+    <t>Выполнении плана продаж</t>
+  </si>
+  <si>
+    <t>Когда в ходе сделки возникает проблема я предпочитаю</t>
+  </si>
+  <si>
+    <t>Постараюсь переубедить клиента</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соглашусь с клиентом </t>
+  </si>
+  <si>
+    <t>Чтобы оценить свою работу я использую</t>
+  </si>
+  <si>
+    <t>Мнение клиента</t>
+  </si>
+  <si>
+    <t>Свое собственное понимание</t>
   </si>
 </sst>
 </file>
@@ -275,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -309,6 +468,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -594,7 +759,7 @@
   <dimension ref="A1:AC23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,13 +815,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -685,13 +850,13 @@
         <v>12</v>
       </c>
       <c r="B3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
@@ -719,9 +884,15 @@
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>76</v>
+      </c>
       <c r="E4" s="4">
         <v>1</v>
       </c>
@@ -748,9 +919,15 @@
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>80</v>
+      </c>
       <c r="E5" s="4">
         <v>-1</v>
       </c>
@@ -777,9 +954,15 @@
       <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="B6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="E6" s="4">
         <v>-1</v>
       </c>
@@ -806,9 +989,15 @@
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>37</v>
+      </c>
       <c r="E7" s="4">
         <v>0</v>
       </c>
@@ -835,9 +1024,15 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="E8" s="4">
         <v>1</v>
       </c>
@@ -864,9 +1059,15 @@
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>84</v>
+      </c>
       <c r="E9" s="4">
         <v>0</v>
       </c>
@@ -889,13 +1090,19 @@
       <c r="AB9" s="11"/>
       <c r="AC9" s="11"/>
     </row>
-    <row r="10" spans="1:29" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="E10" s="4">
         <v>1</v>
       </c>
@@ -922,9 +1129,15 @@
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="E11" s="4">
         <v>1</v>
       </c>
@@ -951,9 +1164,15 @@
       <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="B12" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>87</v>
+      </c>
       <c r="E12" s="4">
         <v>-1</v>
       </c>
@@ -980,9 +1199,15 @@
       <c r="A13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="B13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="E13" s="6">
         <v>1</v>
       </c>
@@ -1009,9 +1234,15 @@
       <c r="A14" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="B14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="E14" s="4">
         <v>0</v>
       </c>
@@ -1038,9 +1269,15 @@
       <c r="A15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="E15" s="4">
         <v>0</v>
       </c>
@@ -1067,9 +1304,15 @@
       <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="B16" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="E16" s="4">
         <v>1</v>
       </c>
@@ -1096,9 +1339,15 @@
       <c r="A17" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="E17" s="4">
         <v>1</v>
       </c>
@@ -1125,9 +1374,15 @@
       <c r="A18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="E18" s="4">
         <v>0</v>
       </c>
@@ -1154,9 +1409,15 @@
       <c r="A19" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>65</v>
+      </c>
       <c r="E19" s="4">
         <v>1</v>
       </c>
@@ -1183,9 +1444,15 @@
       <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>69</v>
+      </c>
       <c r="E20" s="4">
         <v>1</v>
       </c>
@@ -1212,9 +1479,15 @@
       <c r="A21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
+      <c r="B21" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="E21" s="8">
         <v>-1</v>
       </c>
